--- a/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Cases (Menu, MenuItem, MenuSection, MenuItemOptions, ShopDB).xlsx
+++ b/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Cases (Menu, MenuItem, MenuSection, MenuItemOptions, ShopDB).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\git-ΤΛ\nomnomr\docs\contributions\AthanasiaZ\Writing-Charts\Phase6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{296EAEEA-BD16-4FC3-A7B8-4B0BD2AB72E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D735C94B-CA18-496A-BCD2-A8A1540FECA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9560D621-A71A-4FED-9B46-A878053B0129}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,13 +205,25 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF56E39F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -226,9 +238,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -241,12 +252,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF56E39F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -558,7 +577,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,186 +592,189 @@
     <col min="8" max="8" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="E3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:8" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:8" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>37</v>
       </c>
     </row>

--- a/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Cases (Menu, MenuItem, MenuSection, MenuItemOptions, ShopDB).xlsx
+++ b/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Cases (Menu, MenuItem, MenuSection, MenuItemOptions, ShopDB).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\git-ΤΛ\nomnomr\docs\contributions\AthanasiaZ\Writing-Charts\Phase6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D735C94B-CA18-496A-BCD2-A8A1540FECA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76418DD1-B96D-45E7-95C2-18B685C95031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9560D621-A71A-4FED-9B46-A878053B0129}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>Αναμενόμενο Αποτέλεσμα</t>
   </si>
@@ -179,9 +179,87 @@
 στον κατάλογο του Καταστήματος.</t>
   </si>
   <si>
-    <t xml:space="preserve">Επιτυχης Απόρριψη αντικειμένου
+    <t>TC_AddItemToCart_05</t>
+  </si>
+  <si>
+    <t>2. Καταγράφουμε σχόλια με 150
+χαρακτήρες.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Επιτυχής Απόρριψη αντικειμένου
 και επιστροφή στον κατάλογο του
 Καταστήματος. </t>
+  </si>
+  <si>
+    <t>Ο Πελάτης δύναται να επιλέξει 
+Προσθήκη χωρίς κανένα πρόβλημα.</t>
+  </si>
+  <si>
+    <t>TC_AddItemToCart_06</t>
+  </si>
+  <si>
+    <t>Αν ο Πελάτης επιλέξει 
+αντικείμενο και σχολιάσει στο
+κατάλληλο πεδίο έγκυρο αριθμό 
+χαρακτήρων  και θα μπορεί να
+ επιλέξει προσθήκη επιτυχώς;</t>
+  </si>
+  <si>
+    <t>2. Καταγράφουμε σχόλια με 1
+χαρακτήρα.</t>
+  </si>
+  <si>
+    <t>TC_AddItemToCart_07</t>
+  </si>
+  <si>
+    <t>Χαρακτήρες σχολίου: 
+2,147,483,647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Εμφάνιση καταλόγου του
+Καταστημάτος. </t>
+  </si>
+  <si>
+    <t>2. Καταγράφουμε σχόλια με 2,147,483,647 χαρακτήρες.</t>
+  </si>
+  <si>
+    <t>TC_AddItemToCart_08</t>
+  </si>
+  <si>
+    <t>Αν ο Πελάτης επιλέξει 
+αντικείμενο και σχολιάσει στο
+κατάλληλο πεδίο έγκυρο αριθμό  χαρακτήρων, θα μπορεί να
+ επιλέξει προσθήκη επιτυχώς;</t>
+  </si>
+  <si>
+    <t>Αν ο Πελάτης επιλέξει 
+αντικείμενο και σχολιάσει στο
+κατάλληλο πεδίο έγκυρο αριθμό χαρακτήρων, θα μπορεί να επιλέξει προσθήκη επιτυχώς;</t>
+  </si>
+  <si>
+    <t>Αν ο Πελάτης επιλέξει 
+αντικείμενο και σχολιάσει στο
+κατάλληλο πεδίο άκυρο αριθμό 
+χαρακτήρων, θα εμφανιστεί κατάλληλο μήνυμα;</t>
+  </si>
+  <si>
+    <t>Χαρακτήρες σχολίου: 
+2,147,483,648</t>
+  </si>
+  <si>
+    <t>2. Καταγράφουμε σχόλια με 2,147,483,648 χαρακτήρες.</t>
+  </si>
+  <si>
+    <t>Μήνυμα μη επιτρεπτού ορίου
+χαρακτήρων: "Το σχόλιο είναι πολύ μεγάλο"</t>
+  </si>
+  <si>
+    <t>Χαρακτήρες σχολίου: 
+1</t>
+  </si>
+  <si>
+    <t>Χαρακτήρες σχολίου: 
+150</t>
   </si>
 </sst>
 </file>
@@ -574,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2931A8B3-73A4-401C-858F-6C111952F06B}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,7 +773,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:8" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -775,9 +853,162 @@
         <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:8" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:8" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:8" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Cases (Menu, MenuItem, MenuSection, MenuItemOptions, ShopDB).xlsx
+++ b/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Cases (Menu, MenuItem, MenuSection, MenuItemOptions, ShopDB).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\git-ΤΛ\nomnomr\docs\contributions\AthanasiaZ\Writing-Charts\Phase6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76418DD1-B96D-45E7-95C2-18B685C95031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E782DCA-1172-4270-BC88-CD629076A81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9560D621-A71A-4FED-9B46-A878053B0129}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>Αναμενόμενο Αποτέλεσμα</t>
   </si>
@@ -86,11 +86,6 @@
   </si>
   <si>
     <t>Προϊόν:UI</t>
-  </si>
-  <si>
-    <t>Μήνυμα απόρριψης αιτήματος Πε-
-λάτη: "Πρέπει να επιλέξετε το υπο-
-χρεωτικό πεδίο"</t>
   </si>
   <si>
     <t>TC_AddItemToCart_02</t>
@@ -186,11 +181,6 @@
 χαρακτήρες.</t>
   </si>
   <si>
-    <t xml:space="preserve">Επιτυχής Απόρριψη αντικειμένου
-και επιστροφή στον κατάλογο του
-Καταστήματος. </t>
-  </si>
-  <si>
     <t>Ο Πελάτης δύναται να επιλέξει 
 Προσθήκη χωρίς κανένα πρόβλημα.</t>
   </si>
@@ -250,16 +240,41 @@
     <t>2. Καταγράφουμε σχόλια με 2,147,483,648 χαρακτήρες.</t>
   </si>
   <si>
-    <t>Μήνυμα μη επιτρεπτού ορίου
-χαρακτήρων: "Το σχόλιο είναι πολύ μεγάλο"</t>
-  </si>
-  <si>
     <t>Χαρακτήρες σχολίου: 
 1</t>
   </si>
   <si>
     <t>Χαρακτήρες σχολίου: 
 150</t>
+  </si>
+  <si>
+    <t>Μήνυμα απόρριψης αιτήματος Πελάτη: "Πρέπει να επιλέξετε το υποχρεωτικό πεδίο"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Επιτυχής Απόρριψη αντικειμένου
+και επιστροφή στον κατάλογο του Καταστήματος. </t>
+  </si>
+  <si>
+    <t>Μήνυμα μη επιτρεπτού ορίου
+χαρακτήρων: "Το σχόλιο είναι πολύ μεγάλο".</t>
+  </si>
+  <si>
+    <t>Προϊόν:UI
+Σχόλιο 150 χαρακτήρων</t>
+  </si>
+  <si>
+    <t>Προϊόν:UI
+Α</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Προϊόν:UI
+Σχόλιο 2,147,483,647
+χαρακτήρων </t>
+  </si>
+  <si>
+    <t>Προϊόν:UI
+Σχόλιο 2,147,483,648
+χαρακτήρων</t>
   </si>
 </sst>
 </file>
@@ -654,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2931A8B3-73A4-401C-858F-6C111952F06B}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
@@ -722,7 +737,7 @@
     <row r="3" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
@@ -731,28 +746,28 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>14</v>
@@ -760,37 +775,37 @@
     </row>
     <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:8" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>14</v>
@@ -798,83 +813,83 @@
     </row>
     <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:8" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:8" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>14</v>
@@ -882,37 +897,37 @@
     </row>
     <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:8" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>14</v>
@@ -920,37 +935,37 @@
     </row>
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:8" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>14</v>
@@ -958,37 +973,37 @@
     </row>
     <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:8" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>14</v>
@@ -996,16 +1011,16 @@
     </row>
     <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Cases (Menu, MenuItem, MenuSection, MenuItemOptions, ShopDB).xlsx
+++ b/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Cases (Menu, MenuItem, MenuSection, MenuItemOptions, ShopDB).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\git-ΤΛ\nomnomr\docs\contributions\AthanasiaZ\Writing-Charts\Phase6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E782DCA-1172-4270-BC88-CD629076A81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369395AB-C3CF-4A60-A9F5-4ABB4C37D717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9560D621-A71A-4FED-9B46-A878053B0129}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
   <si>
     <t>Αναμενόμενο Αποτέλεσμα</t>
   </si>
@@ -202,10 +202,6 @@
     <t>TC_AddItemToCart_07</t>
   </si>
   <si>
-    <t>Χαρακτήρες σχολίου: 
-2,147,483,647</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Εμφάνιση καταλόγου του
 Καταστημάτος. </t>
   </si>
@@ -233,19 +229,7 @@
 χαρακτήρων, θα εμφανιστεί κατάλληλο μήνυμα;</t>
   </si>
   <si>
-    <t>Χαρακτήρες σχολίου: 
-2,147,483,648</t>
-  </si>
-  <si>
     <t>2. Καταγράφουμε σχόλια με 2,147,483,648 χαρακτήρες.</t>
-  </si>
-  <si>
-    <t>Χαρακτήρες σχολίου: 
-1</t>
-  </si>
-  <si>
-    <t>Χαρακτήρες σχολίου: 
-150</t>
   </si>
   <si>
     <t>Μήνυμα απόρριψης αιτήματος Πελάτη: "Πρέπει να επιλέξετε το υποχρεωτικό πεδίο"</t>
@@ -275,13 +259,141 @@
     <t>Προϊόν:UI
 Σχόλιο 2,147,483,648
 χαρακτήρων</t>
+  </si>
+  <si>
+    <t>1. Εμφάνιση καταλόγου του
+Καταστήματος.</t>
+  </si>
+  <si>
+    <t>1. Επιλέγουμε το αντικείμενο από τον κατάλογο του Καταστήματος.</t>
+  </si>
+  <si>
+    <t>1. Επιλέγουμε το αντικείμενο
+από τον κατάλογο του 
+Καταστήματος.</t>
+  </si>
+  <si>
+    <t>2. Εμφάνιση του παραθύρου
+επεξεργασίας αντικειμένου που 
+περιέχει επιλογές υλικών με μαξ
+3 υλικά.</t>
+  </si>
+  <si>
+    <t>2. Επιλέγουμε 4 υλικά.</t>
+  </si>
+  <si>
+    <t>Μήνυμα μη επιτρεπτού ορίου
+χαρακτήρων: "Επιλέξτε μέχρι 3 
+υλικά."</t>
+  </si>
+  <si>
+    <t>TC_AddItemToCart_09</t>
+  </si>
+  <si>
+    <t>TC_AddItemToCart_10</t>
+  </si>
+  <si>
+    <t>TC_AddItemToCart_11</t>
+  </si>
+  <si>
+    <t>2. Επιλέγουμε 3 υλικά.</t>
+  </si>
+  <si>
+    <t>Χαρακτήρες σχολίου: 
+150
+Έγκυρη Τιμή</t>
+  </si>
+  <si>
+    <t>Χαρακτήρες σχολίου: 
+1
+Έγκυρη Τιμή</t>
+  </si>
+  <si>
+    <t>Χαρακτήρες σχολίου: 
+2,147,483,647
+Άνω Όριο</t>
+  </si>
+  <si>
+    <t>Χαρακτήρες σχολίου: 
+2,147,483,648
+Άκυρη Τιμή</t>
+  </si>
+  <si>
+    <t>Επιλογή Υλικών:
+4
+Άκυρη Τιμή</t>
+  </si>
+  <si>
+    <t>Επιλογή Υλικών:
+2
+Έγκυρη Τιμή</t>
+  </si>
+  <si>
+    <t>Επιλογή Υλικών:
+3
+Άνω Όριο</t>
+  </si>
+  <si>
+    <t>Αν ο Πελάτης επιλέξει κάτω
+από τα 3 προαιρετικά υλικά που του 
+επιτρέπει το αντικείμενο,
+θα μπορεί να προσθέσει προσθήκη επιτυχώς;</t>
+  </si>
+  <si>
+    <t>Αν ο Πελάτης επιλέξει ακριβώς τα 3 προαιρετικά υλικά που του 
+επιτρέπει το αντικείμενο,
+θα μπορεί να προσθέσει 
+προσθήκη επιτυχώς;</t>
+  </si>
+  <si>
+    <t>Αν ο Πελάτης επιλέξει πάνω 
+από τα 3 προαιρετικά υλικά που του επιτρέπει το αντικείμενο,
+θα εμφανιστεί κατάλληλο
+μήνυμα;</t>
+  </si>
+  <si>
+    <t>Αν ο Πελάτης επιλέξει 0 από τα 3 προαιρετικά υλικά που του 
+επιτρέπει το αντικείμενο,
+θα μπορεί να προσθέσει 
+προσθήκη επιτυχώς;</t>
+  </si>
+  <si>
+    <t>Επιλογή Υλικών:
+0
+Κάτω Όριο</t>
+  </si>
+  <si>
+    <t>2. Επιλέγουμε 0 υλικά.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Αρνητική </t>
+  </si>
+  <si>
+    <t>Αν ο Πελάτης προσπαθήσει 
+να επιλέξει μη διαθέσιμο
+αντικείμενο του καταλόγου, δεν θα μπορέσει να δει την οθόνη επεξεργασίας αντικειμένου;</t>
+  </si>
+  <si>
+    <t>1. Επιλέγουμε το μη διαθέσιμο 
+αντικείμενο από τον κατάλογο 
+του Καταστήματος.</t>
+  </si>
+  <si>
+    <t>Ο Πελάτης δεν δύναται να επιλέξει  το αντικείμενο και ως εκ τούτου να βρεθεί στην οθόνη 
+επεξεργασίας του.</t>
+  </si>
+  <si>
+    <t>TC_AddItemToCart_12</t>
+  </si>
+  <si>
+    <t>TC_AddItemToCart_13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +412,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF56E39F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -331,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -348,6 +467,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -667,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2931A8B3-73A4-401C-858F-6C111952F06B}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -746,11 +875,11 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -868,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -877,10 +1006,10 @@
         <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>17</v>
@@ -903,7 +1032,7 @@
         <v>37</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>38</v>
@@ -918,7 +1047,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>17</v>
@@ -941,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>38</v>
@@ -953,16 +1082,16 @@
         <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>28</v>
@@ -976,10 +1105,10 @@
         <v>26</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>38</v>
@@ -988,22 +1117,22 @@
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:8" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>14</v>
@@ -1014,16 +1143,195 @@
         <v>26</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="F28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Cases (Menu, MenuItem, MenuSection, MenuItemOptions, ShopDB).xlsx
+++ b/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Cases (Menu, MenuItem, MenuSection, MenuItemOptions, ShopDB).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\git-ΤΛ\nomnomr\docs\contributions\AthanasiaZ\Writing-Charts\Phase6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369395AB-C3CF-4A60-A9F5-4ABB4C37D717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00139B03-8ADB-41E6-809D-B47453D18B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9560D621-A71A-4FED-9B46-A878053B0129}"/>
   </bookViews>
@@ -798,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2931A8B3-73A4-401C-858F-6C111952F06B}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
